--- a/migforecasting/cities17-18/2/d5.xlsx
+++ b/migforecasting/cities17-18/2/d5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities17-18\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,34 +1766,22 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1801,7 +1789,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,16 +1806,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1826,16 +1814,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,16 +1831,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1860,16 +1848,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,16 +1865,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1894,16 +1882,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1911,16 +1899,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1928,16 +1916,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1945,16 +1933,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1962,16 +1950,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,7 +1967,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,16 +1984,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" t="s">
-        <v>172</v>
-      </c>
-      <c r="D57" t="s">
-        <v>173</v>
-      </c>
-      <c r="E57" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2004,16 +1992,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E58" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,16 +2009,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,16 +2026,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2055,16 +2043,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,16 +2060,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E62" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2089,16 +2077,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D63" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,16 +2094,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2123,7 +2111,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="C65" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2131,16 +2128,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
-      </c>
-      <c r="C66" t="s">
-        <v>202</v>
-      </c>
-      <c r="D66" t="s">
-        <v>203</v>
-      </c>
-      <c r="E66" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2148,10 +2136,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
         <v>203</v>
@@ -2165,10 +2153,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" t="s">
         <v>203</v>
@@ -2182,10 +2170,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D69" t="s">
         <v>203</v>
@@ -2197,6 +2185,18 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
